--- a/www/IndicatorsPerCountry/Zimbabwe_GDPperCapita_TerritorialRef_1965_2012_CCode_716.xlsx
+++ b/www/IndicatorsPerCountry/Zimbabwe_GDPperCapita_TerritorialRef_1965_2012_CCode_716.xlsx
@@ -246,13 +246,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Zimbabwe_GDPperCapita_TerritorialRef_1965_2012_CCode_716.xlsx
+++ b/www/IndicatorsPerCountry/Zimbabwe_GDPperCapita_TerritorialRef_1965_2012_CCode_716.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="85">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,187 +36,202 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>701</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>724</t>
-  </si>
-  <si>
-    <t>760</t>
-  </si>
-  <si>
-    <t>772</t>
-  </si>
-  <si>
-    <t>808</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>924</t>
-  </si>
-  <si>
-    <t>906</t>
-  </si>
-  <si>
-    <t>925</t>
-  </si>
-  <si>
-    <t>938</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>939</t>
-  </si>
-  <si>
-    <t>901</t>
-  </si>
-  <si>
-    <t>953</t>
-  </si>
-  <si>
-    <t>984</t>
-  </si>
-  <si>
-    <t>967</t>
-  </si>
-  <si>
-    <t>1015</t>
-  </si>
-  <si>
-    <t>999</t>
-  </si>
-  <si>
-    <t>1086</t>
-  </si>
-  <si>
-    <t>1282</t>
-  </si>
-  <si>
-    <t>1353</t>
-  </si>
-  <si>
-    <t>1423</t>
-  </si>
-  <si>
-    <t>1432</t>
-  </si>
-  <si>
-    <t>1427</t>
-  </si>
-  <si>
-    <t>1402</t>
-  </si>
-  <si>
-    <t>1357</t>
-  </si>
-  <si>
-    <t>1221</t>
-  </si>
-  <si>
-    <t>1232</t>
+    <t>1117</t>
+  </si>
+  <si>
+    <t>1151</t>
+  </si>
+  <si>
+    <t>1154</t>
   </si>
   <si>
     <t>1211</t>
   </si>
   <si>
-    <t>1295</t>
-  </si>
-  <si>
-    <t>1407</t>
-  </si>
-  <si>
-    <t>1405</t>
-  </si>
-  <si>
-    <t>1374</t>
-  </si>
-  <si>
-    <t>1297</t>
-  </si>
-  <si>
-    <t>1335</t>
-  </si>
-  <si>
-    <t>1322</t>
-  </si>
-  <si>
-    <t>1257</t>
-  </si>
-  <si>
-    <t>1326</t>
-  </si>
-  <si>
-    <t>1368</t>
-  </si>
-  <si>
-    <t>1355.44956499</t>
-  </si>
-  <si>
-    <t>1412.68915115</t>
-  </si>
-  <si>
-    <t>1259.71875656</t>
-  </si>
-  <si>
-    <t>1256.33428902</t>
-  </si>
-  <si>
-    <t>1315.91722531</t>
-  </si>
-  <si>
-    <t>1309.67275386</t>
-  </si>
-  <si>
-    <t>1416.94891291</t>
-  </si>
-  <si>
-    <t>1417.15121728</t>
-  </si>
-  <si>
-    <t>1401.5992184</t>
-  </si>
-  <si>
-    <t>1337.04619759</t>
-  </si>
-  <si>
-    <t>1231.00364381</t>
-  </si>
-  <si>
-    <t>1248.16099954</t>
-  </si>
-  <si>
-    <t>1128.10782385</t>
-  </si>
-  <si>
-    <t>941.77996398</t>
-  </si>
-  <si>
-    <t>891.54115236</t>
-  </si>
-  <si>
-    <t>849.291247797</t>
-  </si>
-  <si>
-    <t>826.798090491</t>
-  </si>
-  <si>
-    <t>802.64943604</t>
-  </si>
-  <si>
-    <t>660.735446617</t>
-  </si>
-  <si>
-    <t>699.56015424</t>
-  </si>
-  <si>
-    <t>749.797886346</t>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>1288</t>
+  </si>
+  <si>
+    <t>1422</t>
+  </si>
+  <si>
+    <t>1473</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>1497</t>
+  </si>
+  <si>
+    <t>1436</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1568</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>1618</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>2043</t>
+  </si>
+  <si>
+    <t>2157</t>
+  </si>
+  <si>
+    <t>2268</t>
+  </si>
+  <si>
+    <t>2283</t>
+  </si>
+  <si>
+    <t>2275</t>
+  </si>
+  <si>
+    <t>2235</t>
+  </si>
+  <si>
+    <t>2163</t>
+  </si>
+  <si>
+    <t>1946</t>
+  </si>
+  <si>
+    <t>1964</t>
+  </si>
+  <si>
+    <t>1930</t>
+  </si>
+  <si>
+    <t>2064</t>
+  </si>
+  <si>
+    <t>2243</t>
+  </si>
+  <si>
+    <t>2240</t>
+  </si>
+  <si>
+    <t>2190</t>
+  </si>
+  <si>
+    <t>2067</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2114</t>
+  </si>
+  <si>
+    <t>2181</t>
+  </si>
+  <si>
+    <t>2160</t>
+  </si>
+  <si>
+    <t>2222.25533870045</t>
+  </si>
+  <si>
+    <t>1971.44557700488</t>
+  </si>
+  <si>
+    <t>1948.91053825787</t>
+  </si>
+  <si>
+    <t>2110.71198430126</t>
+  </si>
+  <si>
+    <t>2102.85990985999</t>
+  </si>
+  <si>
+    <t>2292.4874652967</t>
+  </si>
+  <si>
+    <t>2326.53888823625</t>
+  </si>
+  <si>
+    <t>2369.01912391686</t>
+  </si>
+  <si>
+    <t>2323.00927537187</t>
+  </si>
+  <si>
+    <t>2211.19619342415</t>
+  </si>
+  <si>
+    <t>2193.73848050911</t>
+  </si>
+  <si>
+    <t>2025.31775378879</t>
+  </si>
+  <si>
+    <t>1700.95585834871</t>
+  </si>
+  <si>
+    <t>1604.50302473472</t>
+  </si>
+  <si>
+    <t>1496.03426670055</t>
+  </si>
+  <si>
+    <t>1455.7286141876</t>
+  </si>
+  <si>
+    <t>1422.1553208298</t>
+  </si>
+  <si>
+    <t>1197.52606766824</t>
+  </si>
+  <si>
+    <t>1285.04658864784</t>
+  </si>
+  <si>
+    <t>1401.85651907259</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>1560</t>
+  </si>
+  <si>
+    <t>1534</t>
   </si>
   <si>
     <t>Description</t>
@@ -1357,6 +1372,108 @@
         <v>67</v>
       </c>
     </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>716.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1372,50 +1489,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
